--- a/Fase2_ML_Schedulling_Optimization/Costes_promedio RESUMEN Hipotesis.xlsx
+++ b/Fase2_ML_Schedulling_Optimization/Costes_promedio RESUMEN Hipotesis.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Formacion\202310 INESDI Master IA Transfor Negocios\TFM\Fase2_ML_Schedulling_Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\PYTHON files\INESDI\TFM\Fase2_ML_Scheduling_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462E2C0-E770-45EB-8B4E-22748BB13477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DC8169-5048-43FB-833B-F925F947B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R11" sheetId="2" r:id="rId1"/>
     <sheet name="R1231" sheetId="3" r:id="rId2"/>
+    <sheet name="R1221" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -1090,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A76EBBC-8409-427F-9AC7-F2EE672C68EA}">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF67F238-E309-406E-8A91-629D6A94FDF9}">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1888,4 +1889,409 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CABFCB-6089-4E91-8CEC-86BAB4240C1F}">
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="2:11" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>127</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1.809803921568627</v>
+      </c>
+      <c r="F4" s="24">
+        <f>E4*20*$E$15</f>
+        <v>180.98039215686271</v>
+      </c>
+      <c r="G4" s="20">
+        <v>23.966666666666669</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4*20*$E$16</f>
+        <v>239.66666666666669</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2.1843137254901959</v>
+      </c>
+      <c r="J4" s="32">
+        <f>I4*20*$E$17</f>
+        <v>305.8039215686274</v>
+      </c>
+      <c r="K4" s="28">
+        <f>F4+H4+J4</f>
+        <v>726.45098039215679</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14">
+        <v>135</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.7046296296296299</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" ref="F5:F9" si="0">E5*20*$E$15</f>
+        <v>170.46296296296299</v>
+      </c>
+      <c r="G5" s="18">
+        <v>24.137962962962959</v>
+      </c>
+      <c r="H5" s="33">
+        <f t="shared" ref="H5:H9" si="1">G5*20*$E$16</f>
+        <v>241.37962962962959</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2.219444444444445</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5:J9" si="2">I5*20*$E$17</f>
+        <v>310.72222222222229</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" ref="K5:K9" si="3">F5+H5+J5</f>
+        <v>722.56481481481489</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>131</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.871428571428571</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>187.14285714285708</v>
+      </c>
+      <c r="G6" s="18">
+        <v>22.749523809523811</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="1"/>
+        <v>227.49523809523811</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.989523809523809</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="2"/>
+        <v>278.5333333333333</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="3"/>
+        <v>693.17142857142846</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14">
+        <v>158</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.8841269841269841</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>188.41269841269843</v>
+      </c>
+      <c r="G7" s="18">
+        <v>24.271428571428569</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="1"/>
+        <v>242.71428571428569</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2.2682539682539682</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="2"/>
+        <v>317.55555555555554</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="3"/>
+        <v>748.68253968253964</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
+        <v>161</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1.586046511627907</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>158.6046511627907</v>
+      </c>
+      <c r="G8" s="18">
+        <v>25.9</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2.2953488372093021</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="2"/>
+        <v>321.34883720930225</v>
+      </c>
+      <c r="K8" s="29">
+        <f t="shared" si="3"/>
+        <v>738.95348837209292</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17">
+        <v>171</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.394160583941606</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>139.41605839416059</v>
+      </c>
+      <c r="G9" s="22">
+        <v>25.080291970802921</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="1"/>
+        <v>250.80291970802921</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2.2525547445255469</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="2"/>
+        <v>315.35766423357654</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="3"/>
+        <v>705.57664233576634</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" ref="E10:K10" si="4">AVERAGE(E4:E9)</f>
+        <v>1.7083660337205542</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="4"/>
+        <v>170.83660337205541</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="4"/>
+        <v>24.350978996897492</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="4"/>
+        <v>243.50978996897484</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="4"/>
+        <v>2.2015732549078777</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="4"/>
+        <v>308.22025568710291</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="4"/>
+        <v>722.56664902813316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="39">
+        <f>_xlfn.STDEV.S(E4:E9)</f>
+        <v>0.19051091247166169</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" ref="F11:K11" si="5">_xlfn.STDEV.S(F4:F9)</f>
+        <v>19.051091247165989</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="5"/>
+        <v>1.0672789951271859</v>
+      </c>
+      <c r="H11" s="41">
+        <f t="shared" si="5"/>
+        <v>10.672789951271865</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="5"/>
+        <v>0.11083458639866355</v>
+      </c>
+      <c r="J11" s="41">
+        <f t="shared" si="5"/>
+        <v>15.516842095812873</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="5"/>
+        <v>20.583467127636585</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="5">
+        <f>'R11'!E15</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f>'R11'!F15</f>
+        <v>Coste una consulta = 4 € x 20 min = 80 €  +  otros Costes Operativos (1 €/min)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="6">
+        <f>'R11'!E16</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="7">
+        <f>'R11'!E17</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="43" t="str">
+        <f>'R11'!F17</f>
+        <v>Coste una consulta = (4 € x 1,5) x 20 min = 120 €  +  otros Costes Operativos (1 €/min)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>